--- a/fifth.xlsx
+++ b/fifth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\harshali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFBD25-B7B0-4C94-BA70-D1ACB5A4695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FE434-3510-4E5E-B4F7-3BE76BF57798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -359,6 +359,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
